--- a/map/public/result_df.xlsx
+++ b/map/public/result_df.xlsx
@@ -67815,7 +67815,307 @@
         <v>23</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H206">
+        <v>135</v>
+      </c>
+      <c r="I206">
+        <v>97</v>
+      </c>
+      <c r="J206">
+        <v>5601</v>
+      </c>
+      <c r="K206">
+        <v>15216</v>
+      </c>
+      <c r="L206">
+        <v>46245</v>
+      </c>
+      <c r="M206">
+        <v>57397</v>
+      </c>
+      <c r="N206">
+        <v>37904</v>
+      </c>
+      <c r="O206">
+        <v>28799</v>
+      </c>
+      <c r="P206">
+        <v>28775</v>
+      </c>
+      <c r="Q206">
+        <v>30783</v>
+      </c>
+      <c r="R206">
+        <v>31570</v>
+      </c>
+      <c r="S206">
+        <v>30295</v>
+      </c>
+      <c r="T206">
+        <v>30399</v>
+      </c>
+      <c r="U206">
+        <v>33331</v>
+      </c>
+      <c r="V206">
+        <v>38698</v>
+      </c>
+      <c r="W206">
+        <v>42211</v>
+      </c>
+      <c r="X206">
+        <v>25169</v>
+      </c>
+      <c r="Y206">
+        <v>23082</v>
+      </c>
+      <c r="Z206">
+        <v>21269</v>
+      </c>
+      <c r="AA206">
+        <v>19654</v>
+      </c>
+      <c r="AB206">
+        <v>9341</v>
+      </c>
+      <c r="AC206">
+        <v>1220</v>
+      </c>
+      <c r="AD206">
+        <v>13</v>
+      </c>
+      <c r="AE206">
+        <v>0</v>
+      </c>
+      <c r="AF206">
+        <v>0</v>
+      </c>
+      <c r="AG206">
+        <v>5</v>
+      </c>
+      <c r="AH206">
+        <v>950</v>
+      </c>
+      <c r="AI206">
+        <v>8895</v>
+      </c>
+      <c r="AJ206">
+        <v>17137</v>
+      </c>
+      <c r="AK206">
+        <v>42140</v>
+      </c>
+      <c r="AL206">
+        <v>29997</v>
+      </c>
+      <c r="AM206">
+        <v>24399</v>
+      </c>
+      <c r="AN206">
+        <v>26185</v>
+      </c>
+      <c r="AO206">
+        <v>29007</v>
+      </c>
+      <c r="AP206">
+        <v>31052</v>
+      </c>
+      <c r="AQ206">
+        <v>32957</v>
+      </c>
+      <c r="AR206">
+        <v>39850</v>
+      </c>
+      <c r="AS206">
+        <v>45893</v>
+      </c>
+      <c r="AT206">
+        <v>56978</v>
+      </c>
+      <c r="AU206">
+        <v>78882</v>
+      </c>
+      <c r="AV206">
+        <v>49001</v>
+      </c>
+      <c r="AW206">
+        <v>28748</v>
+      </c>
+      <c r="AX206">
+        <v>26498</v>
+      </c>
+      <c r="AY206">
+        <v>24331</v>
+      </c>
+      <c r="AZ206">
+        <v>14807</v>
+      </c>
+      <c r="BA206">
+        <v>3539</v>
+      </c>
+      <c r="BB206">
+        <v>662</v>
+      </c>
+      <c r="BC206">
+        <v>0</v>
+      </c>
+      <c r="BD206">
+        <v>0</v>
+      </c>
+      <c r="BE206">
+        <v>4.400249961077245</v>
+      </c>
+      <c r="BF206">
+        <v>254.0804127009655</v>
+      </c>
+      <c r="BG206">
+        <v>690.2495196675397</v>
+      </c>
+      <c r="BH206">
+        <v>2097.830509793991</v>
+      </c>
+      <c r="BI206">
+        <v>2603.723165112893</v>
+      </c>
+      <c r="BJ206">
+        <v>1719.454376543009</v>
+      </c>
+      <c r="BK206">
+        <v>1306.420604423336</v>
+      </c>
+      <c r="BL206">
+        <v>1305.331882783482</v>
+      </c>
+      <c r="BM206">
+        <v>1396.421593317947</v>
+      </c>
+      <c r="BN206">
+        <v>1432.122590424831</v>
+      </c>
+      <c r="BO206">
+        <v>1374.284253307579</v>
+      </c>
+      <c r="BP206">
+        <v>1379.00204708028</v>
+      </c>
+      <c r="BQ206">
+        <v>1512.00754074913</v>
+      </c>
+      <c r="BR206">
+        <v>1755.472917461518</v>
+      </c>
+      <c r="BS206">
+        <v>1914.834547495171</v>
+      </c>
+      <c r="BT206">
+        <v>1141.751456395393</v>
+      </c>
+      <c r="BU206">
+        <v>1047.078037129742</v>
+      </c>
+      <c r="BV206">
+        <v>964.8341899190921</v>
+      </c>
+      <c r="BW206">
+        <v>891.5722962372389</v>
+      </c>
+      <c r="BX206">
+        <v>423.7395349115727</v>
+      </c>
+      <c r="BY206">
+        <v>55.34335002591999</v>
+      </c>
+      <c r="BZ206">
+        <v>0.589724221587672</v>
+      </c>
+      <c r="CA206">
+        <v>0</v>
+      </c>
+      <c r="CB206">
+        <v>0</v>
+      </c>
+      <c r="CC206">
+        <v>0.2268170083029508</v>
+      </c>
+      <c r="CD206">
+        <v>43.09523157756065</v>
+      </c>
+      <c r="CE206">
+        <v>403.5074577709494</v>
+      </c>
+      <c r="CF206">
+        <v>777.3926142575335</v>
+      </c>
+      <c r="CG206">
+        <v>1911.613745977269</v>
+      </c>
+      <c r="CH206">
+        <v>1360.765959612723</v>
+      </c>
+      <c r="CI206">
+        <v>1106.821637116739</v>
+      </c>
+      <c r="CJ206">
+        <v>1187.840672482553</v>
+      </c>
+      <c r="CK206">
+        <v>1315.856191968739</v>
+      </c>
+      <c r="CL206">
+        <v>1408.624348364646</v>
+      </c>
+      <c r="CM206">
+        <v>1495.04162852807</v>
+      </c>
+      <c r="CN206">
+        <v>1807.731556174518</v>
+      </c>
+      <c r="CO206">
+        <v>2081.862592409464</v>
+      </c>
+      <c r="CP206">
+        <v>2584.715899817106</v>
+      </c>
+      <c r="CQ206">
+        <v>3578.355849790672</v>
+      </c>
+      <c r="CR206">
+        <v>2222.852044770578</v>
+      </c>
+      <c r="CS206">
+        <v>1304.107070938646</v>
+      </c>
+      <c r="CT206">
+        <v>1202.039417202318</v>
+      </c>
+      <c r="CU206">
+        <v>1103.736925803819</v>
+      </c>
+      <c r="CV206">
+        <v>671.6958883883584</v>
+      </c>
+      <c r="CW206">
+        <v>160.5410784768285</v>
+      </c>
+      <c r="CX206">
+        <v>30.03057189931068</v>
+      </c>
+      <c r="CY206">
+        <v>0</v>
+      </c>
+      <c r="CZ206">
+        <v>0</v>
+      </c>
+      <c r="DA206">
+        <v>2</v>
+      </c>
+      <c r="DB206">
+        <v>5727</v>
+      </c>
+      <c r="DC206">
+        <v>21818</v>
       </c>
     </row>
     <row r="207" spans="1:107">
@@ -77528,7 +77828,7 @@
         <v>27</v>
       </c>
       <c r="G237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H237">
         <v>265</v>
@@ -77822,7 +78122,7 @@
         <v>0</v>
       </c>
       <c r="DA237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB237">
         <v>7422</v>
